--- a/ig/terminology/ValueSet-medcom-messaging-sorEdiValues.xlsx
+++ b/ig/terminology/ValueSet-medcom-messaging-sorEdiValues.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from MedComMessagingS" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-medcom-messaging-sorEdiValues.xlsx
+++ b/ig/terminology/ValueSet-medcom-messaging-sorEdiValues.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from MedComMessagingS" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-medcom-messaging-sorEdiValues.xlsx
+++ b/ig/terminology/ValueSet-medcom-messaging-sorEdiValues.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>2.0.0-draft</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-medcom-messaging-sorEdiValues.xlsx
+++ b/ig/terminology/ValueSet-medcom-messaging-sorEdiValues.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-23</t>
+    <t>2025-09-22</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/terminology/ValueSet-medcom-messaging-sorEdiValues.xlsx
+++ b/ig/terminology/ValueSet-medcom-messaging-sorEdiValues.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>
